--- a/IMS-NameCovention&WorkDelegation.xlsx
+++ b/IMS-NameCovention&WorkDelegation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Github\IMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Github\Team10Stockist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Item</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Example</t>
-  </si>
-  <si>
-    <t>Form</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -250,7 +247,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0">
   <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Form"/>
+    <tableColumn id="1" name="Item"/>
     <tableColumn id="2" name="By"/>
     <tableColumn id="3" name="Status"/>
     <tableColumn id="4" name="Changes"/>
@@ -558,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
@@ -572,13 +569,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -586,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="17">
         <v>43075</v>
@@ -594,12 +591,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -639,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -734,7 +731,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -799,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -824,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A2:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,16 +834,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -879,28 +876,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -914,21 +911,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008542BCCB3F86EE4CA72064EFA084177B" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="092630578d683677126343f28a096fd0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3fb7da9b-6a52-461b-a7d3-edb557b34d52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be640bfe28ea7548960edb265e45c9bf" ns2:_="">
     <xsd:import namespace="3fb7da9b-6a52-461b-a7d3-edb557b34d52"/>
@@ -1060,31 +1042,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0832057D-F0C4-436B-8FA8-B0D757A73F79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25389166-1A4F-42A2-BC07-0FB86E393847}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3fb7da9b-6a52-461b-a7d3-edb557b34d52"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54C2E1BE-6154-4AF0-9EF2-632E31505186}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1100,4 +1073,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25389166-1A4F-42A2-BC07-0FB86E393847}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3fb7da9b-6a52-461b-a7d3-edb557b34d52"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0832057D-F0C4-436B-8FA8-B0D757A73F79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>